--- a/msoanames/MSOA-Names-Changelog-1.15.xlsx
+++ b/msoanames/MSOA-Names-Changelog-1.15.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hopuk-my.sharepoint.com/personal/bakerc_parliament_uk/Documents/MSOA names/Published/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hopuk-my.sharepoint.com/personal/bakerc_parliament_uk/Documents/MSOA names/github project/houseofcommonslibrary.github.io/msoanames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{05D78CF7-7E2C-4EEB-874B-A02ACBE803FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC201C4F-6616-4667-A6FF-D7A0B754141B}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{05D78CF7-7E2C-4EEB-874B-A02ACBE803FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D33367A0-D9CC-4541-A310-41AF43780261}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9E13D51-F317-4A80-9D24-5A9CA9A55892}"/>
   </bookViews>
@@ -827,9 +827,6 @@
     <t>1.15</t>
   </si>
   <si>
-    <t>v1.15 (xx September 2021)</t>
-  </si>
-  <si>
     <t>E02005780</t>
   </si>
   <si>
@@ -876,6 +873,9 @@
   </si>
   <si>
     <t>Milland &amp; South Harting</t>
+  </si>
+  <si>
+    <t>v1.15 (20 September 2021)</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1424,7 @@
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1494,20 +1494,20 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="10" t="s">
@@ -1522,20 +1522,20 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>274</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="10" t="s">
@@ -1550,20 +1550,20 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="s">
@@ -1578,20 +1578,20 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>266</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
@@ -3434,6 +3434,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1D72EAC1A2B9748A8FC37D62C78EBAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60c978ab0532982a335917f88ec6cc19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4aa18664-43b2-4507-acfb-b0bb6c5c6ade" xmlns:ns4="551f0183-5a7b-4c82-b8cc-28903d33a4b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fee23400aadc2a19fa6771cebbd9fe12" ns3:_="" ns4:_="">
     <xsd:import namespace="4aa18664-43b2-4507-acfb-b0bb6c5c6ade"/>
@@ -3656,22 +3671,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5622D029-7E6C-4C11-81F4-5647CF586278}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2300CF35-7BAF-4AE8-B4B5-365DE2961F93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60CCCA20-B9B3-416F-80DA-272ABDFAF8D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3688,21 +3705,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2300CF35-7BAF-4AE8-B4B5-365DE2961F93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5622D029-7E6C-4C11-81F4-5647CF586278}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>